--- a/output/part3/4. ew_panel.xlsx
+++ b/output/part3/4. ew_panel.xlsx
@@ -496,36 +496,32 @@
           <t>CAPM</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.00116624472505761</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.00213358035690059</v>
+        <v>0.00206925099598978</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003192886812762945</v>
+        <v>0.003144408756154064</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001778690054923758</v>
+        <v>0.001648212145443345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002154471474953145</v>
+        <v>0.002124990576426796</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003066437492839104</v>
+        <v>0.003205420911039555</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008317357061925369</v>
+        <v>0.008138944768345242</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008222804281235533</v>
+        <v>0.008337391142184012</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01289560259573924</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.01881212654441519</v>
-      </c>
+        <v>0.01289239329413994</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -536,36 +532,32 @@
           <t>t-CAPM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.2593686946349824</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0.5628893202215328</v>
+        <v>0.545550329380053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9009558570876928</v>
+        <v>0.8872335580062286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6022134123225035</v>
+        <v>0.5576792313939212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7749334064618075</v>
+        <v>0.7644639663911541</v>
       </c>
       <c r="G3" t="n">
-        <v>1.047703803899998</v>
+        <v>1.096431711708326</v>
       </c>
       <c r="H3" t="n">
-        <v>2.570572037662185</v>
+        <v>2.514965493687877</v>
       </c>
       <c r="I3" t="n">
-        <v>3.078114698845162</v>
+        <v>3.119973870774125</v>
       </c>
       <c r="J3" t="n">
-        <v>4.097169218614845</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.020799187736369</v>
-      </c>
+        <v>4.096456836014206</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -576,36 +568,32 @@
           <t>FF3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.007079089732026245</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>-0.005055296823335652</v>
+        <v>-0.005131394166739111</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.003290284955533307</v>
+        <v>-0.003352211009378963</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.004492785142306104</v>
+        <v>-0.004642134630014368</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003194843304379041</v>
+        <v>-0.00321212434419118</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.002188682129369618</v>
+        <v>-0.002043662467088294</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002920468737609573</v>
+        <v>0.002713144020826651</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003610016171527772</v>
+        <v>0.003736934044957039</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01041176398502413</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.01684742011642192</v>
-      </c>
+        <v>0.01042093293473908</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -616,36 +604,32 @@
           <t>t-FF3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-2.479912223739112</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>-2.283345076337327</v>
+        <v>-2.317582118883175</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.394964617789057</v>
+        <v>-1.42319208958133</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.48625759781542</v>
+        <v>-2.572014453410175</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.747196736655266</v>
+        <v>-1.757053183216466</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.055746844879567</v>
+        <v>-0.9861688572165073</v>
       </c>
       <c r="H5" t="n">
-        <v>1.192296035774756</v>
+        <v>1.109917903158164</v>
       </c>
       <c r="I5" t="n">
-        <v>2.001257557742149</v>
+        <v>2.06469663154908</v>
       </c>
       <c r="J5" t="n">
-        <v>3.623471494917107</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.619888463450907</v>
-      </c>
+        <v>3.627880782812945</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -656,36 +640,32 @@
           <t>FF5</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.00317000463040454</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>-0.002415379767910057</v>
+        <v>-0.002487120269665052</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001170279033311</v>
+        <v>-0.001236980074932833</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00214465072130552</v>
+        <v>-0.00228853707120517</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.001547195345413347</v>
+        <v>-0.00155679226520868</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0006165693858330614</v>
+        <v>-0.0004883971145985034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004222176678800676</v>
+        <v>0.004019988944173914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004501936621616363</v>
+        <v>0.004631726035856879</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01162704606868301</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0169142751032475</v>
-      </c>
+        <v>0.01164629501182604</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>0</v>
       </c>
@@ -696,36 +676,32 @@
           <t>t-FF5</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-1.27508918507758</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>-1.214812508634402</v>
+        <v>-1.251514422547657</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.513850710530405</v>
+        <v>-0.5438152746913321</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.30076682166519</v>
+        <v>-1.391253106828757</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8764748373947635</v>
+        <v>-0.8824669913876062</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3041486360017194</v>
+        <v>-0.2408345706452851</v>
       </c>
       <c r="H7" t="n">
-        <v>1.725433495345547</v>
+        <v>1.646316235386117</v>
       </c>
       <c r="I7" t="n">
-        <v>2.486535695531629</v>
+        <v>2.550054107405362</v>
       </c>
       <c r="J7" t="n">
-        <v>4.008305409865456</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.549042415898747</v>
-      </c>
+        <v>4.016947485519131</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0</v>
       </c>

--- a/output/part3/4. ew_panel.xlsx
+++ b/output/part3/4. ew_panel.xlsx
@@ -496,32 +496,36 @@
           <t>CAPM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0.0009061154083750605</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.00206925099598978</v>
+        <v>0.001943430403737308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003144408756154064</v>
+        <v>0.003233024810324453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001648212145443345</v>
+        <v>0.001620687078261103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002124990576426796</v>
+        <v>0.002094124844697449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003205420911039555</v>
+        <v>0.003372102277414094</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008138944768345242</v>
+        <v>0.00804347913636299</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008337391142184012</v>
+        <v>0.008303843030992648</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01289239329413994</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>0.01277882005708276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01891731497632265</v>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -532,32 +536,36 @@
           <t>t-CAPM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.2008654176238319</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.545550329380053</v>
+        <v>0.5126706745296122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8872335580062286</v>
+        <v>0.9123746313044236</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5576792313939212</v>
+        <v>0.5478899404564912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7644639663911541</v>
+        <v>0.747108483641772</v>
       </c>
       <c r="G3" t="n">
-        <v>1.096431711708326</v>
+        <v>1.158965594317175</v>
       </c>
       <c r="H3" t="n">
-        <v>2.514965493687877</v>
+        <v>2.482487769031927</v>
       </c>
       <c r="I3" t="n">
-        <v>3.119973870774125</v>
+        <v>3.102059107610151</v>
       </c>
       <c r="J3" t="n">
-        <v>4.096456836014206</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>4.091133032059284</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.053044346847268</v>
+      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -568,32 +576,36 @@
           <t>FF3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-0.007410497034431431</v>
+      </c>
       <c r="C4" t="n">
-        <v>-0.005131394166739111</v>
+        <v>-0.005255686992202486</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.003352211009378963</v>
+        <v>-0.003260266617538334</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.004642134630014368</v>
+        <v>-0.004686618454706798</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00321212434419118</v>
+        <v>-0.003260464030977655</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.002043662467088294</v>
+        <v>-0.001860809131487301</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002713144020826651</v>
+        <v>0.002604424549400023</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003736934044957039</v>
+        <v>0.003693524049132567</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01042093293473908</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>0.01030095021625589</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01695619937905216</v>
+      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -604,32 +616,36 @@
           <t>t-FF3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-2.585851066382368</v>
+      </c>
       <c r="C5" t="n">
-        <v>-2.317582118883175</v>
+        <v>-2.376047458797915</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.42319208958133</v>
+        <v>-1.389181180419309</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.572014453410175</v>
+        <v>-2.581334227873249</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.757053183216466</v>
+        <v>-1.771321466866678</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9861688572165073</v>
+        <v>-0.9035699802269752</v>
       </c>
       <c r="H5" t="n">
-        <v>1.109917903158164</v>
+        <v>1.06593378482341</v>
       </c>
       <c r="I5" t="n">
-        <v>2.06469663154908</v>
+        <v>2.044429824368421</v>
       </c>
       <c r="J5" t="n">
-        <v>3.627880782812945</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>3.614878161053737</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.652235658529247</v>
+      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -640,32 +656,36 @@
           <t>FF5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>-0.003483844307334468</v>
+      </c>
       <c r="C6" t="n">
-        <v>-0.002487120269665052</v>
+        <v>-0.002620138117910237</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001236980074932833</v>
+        <v>-0.001143768695128813</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00228853707120517</v>
+        <v>-0.002331735966419225</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00155679226520868</v>
+        <v>-0.00161176918103416</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0004883971145985034</v>
+        <v>-0.0002699005693666582</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004019988944173914</v>
+        <v>0.003869917323730683</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004631726035856879</v>
+        <v>0.004638452414252914</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01164629501182604</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>0.01147632053353393</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01704829960083429</v>
+      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
@@ -676,32 +696,36 @@
           <t>t-FF5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-1.393080810748402</v>
+      </c>
       <c r="C7" t="n">
-        <v>-1.251514422547657</v>
+        <v>-1.322179698676534</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5438152746913321</v>
+        <v>-0.5047025294175022</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.391253106828757</v>
+        <v>-1.407636447602461</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8824669913876062</v>
+        <v>-0.9079263347808367</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2408345706452851</v>
+        <v>-0.1339483561280148</v>
       </c>
       <c r="H7" t="n">
-        <v>1.646316235386117</v>
+        <v>1.585162433721621</v>
       </c>
       <c r="I7" t="n">
-        <v>2.550054107405362</v>
+        <v>2.561546562583995</v>
       </c>
       <c r="J7" t="n">
-        <v>4.016947485519131</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>3.987891205295169</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.587593006619085</v>
+      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>

--- a/output/part3/4. ew_panel.xlsx
+++ b/output/part3/4. ew_panel.xlsx
@@ -527,7 +527,7 @@
         <v>0.01891731497632265</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.02053214390816876</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         <v>5.053044346847268</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.860219572339918</v>
       </c>
     </row>
     <row r="4">

--- a/output/part3/4. ew_panel.xlsx
+++ b/output/part3/4. ew_panel.xlsx
@@ -527,7 +527,7 @@
         <v>0.01891731497632265</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02053214390816876</v>
+        <v>0.0180111995679476</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         <v>5.053044346847268</v>
       </c>
       <c r="L3" t="n">
-        <v>4.860219572339918</v>
+        <v>3.638499527237325</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         <v>0.01695619937905216</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.02436669641348358</v>
       </c>
     </row>
     <row r="5">
@@ -647,7 +647,7 @@
         <v>4.652235658529247</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5.558023826910774</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         <v>0.01704829960083429</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.02053214390816876</v>
       </c>
     </row>
     <row r="7">
@@ -727,7 +727,7 @@
         <v>4.587593006619085</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4.860219572339918</v>
       </c>
     </row>
   </sheetData>
